--- a/proview/reproviewinfostudentapplication/student_application2019-05.xlsx
+++ b/proview/reproviewinfostudentapplication/student_application2019-05.xlsx
@@ -601,7 +601,15 @@
     <t xml:space="preserve">Describe your analytic experience/training (including relevant coursework)</t>
   </si>
   <si>
-    <t xml:space="preserve">During the period of my MSc study at African Institute for Mathematical Sciences in South Africa and Stellenbosch University, I developed interest in health research. This is evident by the fact that my MSc research project investigated the age-related changes in blood lymphocyte cell-markers in paediatric data from South Africa. I feel fascinated and motivated by the fact that those in the field of medical research have the enviable opportunity of positively impacting the lives of those suffering from various kinds of diseases. I feel the urge to be part of such kind of a team in future. Consequently, I started developing my skills in bio-statistical research with greater focus in health related research. Over-time, I have developed interest in statistical epidemiology and statistical computation, with greater focus in Machine Learning. These fields of statistics are generally flexible because they can integrate various statistical methods. In this study, by using an ‘age snap-shot’ cross-sectional data from healthy South African children we established a continuous double exponential model as the ideal for predicting age-related changes in blood lymphocyte cell markers for healthy South African children. We also proposed a 'distribution free' algorithm for reliably constructing reference ranges for predicted values which eliminates the loss of precision resulting from the practice of grouping age ranges into ‘age-blocks’, as seen in prior empirical studies. The findings of this research were based on the data from normal subjects thus may be used build comparison among the healthy and unhealthy subjects. For instance, the findings may be used to develop an easy-to-use laboratory tool, presumably in the form of a spreadsheet, that has the age-continuous double exponential implemented and by which the technician can enter the patient’s age and particular cell-count value and immediately determine whether the particular sample is within normal ranges or not at very precise ages. In my quest to expand my knowledge in these fields and connect them to my theoretical knowledge in statistics and mathematics, I joined Prof. Jonathan’s Dushoff Lab which focuses in </t>
+    <t xml:space="preserve">During the period of my MSc study at African Institute for Mathematical Sciences in South Africa and Stellenbosch University, I developed interest in health research. This is evident by the fact that my MSc research project investigated the age-related changes in blood lymphocyte cell-markers in paediatric data from South Africa. I feel fascinated and motivated by the fact that those in the field of medical research have the enviable opportunity of positively impacting the lives of those suffering from various kinds of diseases. Consequently, I started developing my skills in bio-statistical research with greater focus in health related research. Over-time, I have developed interest in statistical epidemiology and statistical computation, with greater focus in Machine Learning. These fields of statistics are generally flexible because they can integrate various statistical methods. 
+In my Msc study, by using an ‘age snap-shot’ cross-sectional data from healthy South African children we established a continuous double exponential model as the ideal for predicting age-related changes in blood lymphocyte cell markers for healthy South African children. We also proposed a 'distribution free' algorithm for reliably constructing reference ranges for predicted values which eliminates the loss of precision resulting from the practice of grouping age ranges into ‘age-blocks’, as seen in prior empirical studies. The findings of this research were based on the data from normal subjects thus may be used build comparison among the healthy and unhealthy subjects. For instance, the findings may be used to develop an easy-to-use laboratory tool, presumably in the form of a spreadsheet, that has the age-continuous double exponential implemented and by which the technician can enter the patient’s age and particular cell-count value and immediately determine whether the particular sample is within normal ranges or not at very precise ages. In my quest to expand my knowledge in these fields and connect them to my theoretical knowledge in statistics and mathematics, I joined Prof. Jonathan’s Dushoff Lab which focuses in theoretical, statistical and computational approaches to study biology. 
+In additional to several Statistical and computation courses I undertook during my masters and undergraduate studies, I recently took the following courses for PhD studies:
+1. Data Science
+2. Statistics Machine Learning in Medicine 
+I have also attended trainings on the following:
+1. Bayesian Analysis of Longitudinal Studies
+2. Clinic on Meaningful Modeling of Epidemiological  Data (MMED)
+3. Mathematical Modeling for Infectious Diseases</t>
   </si>
   <si>
     <t xml:space="preserve">Other relevant information</t>
@@ -1508,7 +1516,7 @@
     <numFmt numFmtId="167" formatCode="DD/MMM/YYYY"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1731,13 +1739,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF10243E"/>
@@ -1944,7 +1945,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="132">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1957,10 +1958,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2019,10 +2016,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2137,10 +2130,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2165,10 +2154,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2253,10 +2238,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2265,7 +2246,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2365,7 +2346,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2425,11 +2406,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2437,10 +2418,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2473,19 +2450,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2493,7 +2466,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2737,9 +2710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>733320</xdr:colOff>
+      <xdr:colOff>732960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2753,7 +2726,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158760" y="95400"/>
-          <a:ext cx="676080" cy="675720"/>
+          <a:ext cx="675720" cy="675360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2779,9 +2752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>733320</xdr:colOff>
+      <xdr:colOff>732960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2795,7 +2768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158760" y="114480"/>
-          <a:ext cx="676080" cy="675720"/>
+          <a:ext cx="675720" cy="675360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2821,9 +2794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>733320</xdr:colOff>
+      <xdr:colOff>732960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2837,7 +2810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="158760" y="85680"/>
-          <a:ext cx="676080" cy="675720"/>
+          <a:ext cx="675720" cy="675360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2860,8 +2833,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2871,816 +2844,816 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="4" t="str">
+      <c r="D1" s="3" t="str">
         <f aca="true">"Form Completion Date: "&amp;TEXT(TODAY(),"dd-mmm-yyyy")</f>
         <v>Form Completion Date: 16-May-2019</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="28" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="28" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="28" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="28" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="29" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" s="12" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" s="13" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" s="36" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="37" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" s="12" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" s="34" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="40" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="40" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" s="39" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="42" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" s="37" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-    </row>
-    <row r="21" s="39" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="42" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" s="37" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="44" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="44" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="44" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" s="39" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="44" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" s="37" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="44" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" s="39" customFormat="true" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="40" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" s="37" customFormat="true" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="45"/>
+      <c r="E27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" s="48" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="44" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="49" t="n">
+      <c r="C28" s="46" t="n">
         <v>43709</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-    </row>
-    <row r="29" s="48" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="44" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+    </row>
+    <row r="29" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="50" t="n">
+      <c r="C29" s="47" t="n">
         <v>44805</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-    </row>
-    <row r="30" s="48" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="51" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+    </row>
+    <row r="30" s="37" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-    </row>
-    <row r="31" s="39" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="42" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" s="37" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-    </row>
-    <row r="32" s="48" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="51" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="32" s="37" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-    </row>
-    <row r="33" s="54" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="37" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" s="51" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-    </row>
-    <row r="34" s="55" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="56" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" s="34" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-    </row>
-    <row r="35" s="55" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="58" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+    </row>
+    <row r="35" s="34" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-    </row>
-    <row r="36" s="55" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="58" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+    </row>
+    <row r="36" s="34" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-    </row>
-    <row r="37" s="55" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="58" t="s">
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" s="34" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-    </row>
-    <row r="38" s="55" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="54"/>
-      <c r="B38" s="59" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+    </row>
+    <row r="38" s="34" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="51"/>
+      <c r="B38" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-    </row>
-    <row r="39" s="55" customFormat="true" ht="215.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="54"/>
-      <c r="B39" s="60" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+    </row>
+    <row r="39" s="34" customFormat="true" ht="215.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="51"/>
+      <c r="B39" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-    </row>
-    <row r="40" s="55" customFormat="true" ht="97.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="54"/>
-      <c r="B40" s="63" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+    </row>
+    <row r="40" s="34" customFormat="true" ht="97.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="51"/>
+      <c r="B40" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-    </row>
-    <row r="41" s="55" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="64" t="s">
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+    </row>
+    <row r="41" s="34" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-    </row>
-    <row r="42" s="55" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="46" t="s">
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+    </row>
+    <row r="42" s="34" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="64" t="s">
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="66" t="s">
+      <c r="H42" s="60"/>
+      <c r="I42" s="62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" s="55" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="64"/>
-      <c r="C43" s="67" t="s">
+    <row r="43" s="34" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="60"/>
+      <c r="C43" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="68" t="s">
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69" t="s">
+      <c r="H43" s="64"/>
+      <c r="I43" s="65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" s="55" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="64"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="64" t="s">
+    <row r="44" s="34" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="60"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="69"/>
-    </row>
-    <row r="45" s="55" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="59" t="s">
+      <c r="H44" s="60"/>
+      <c r="I44" s="65"/>
+    </row>
+    <row r="45" s="34" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-    </row>
-    <row r="46" s="55" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="71" t="s">
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+    </row>
+    <row r="46" s="34" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-    </row>
-    <row r="47" s="55" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="56" t="s">
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+    </row>
+    <row r="47" s="34" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-    </row>
-    <row r="48" s="55" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="51" t="s">
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" s="34" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-    </row>
-    <row r="49" s="55" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="51" t="s">
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+    </row>
+    <row r="49" s="34" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-    </row>
-    <row r="50" s="55" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="51" t="s">
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+    </row>
+    <row r="50" s="34" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-    </row>
-    <row r="51" s="55" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="37" t="s">
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+    </row>
+    <row r="51" s="34" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-    </row>
-    <row r="52" s="55" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="73" t="s">
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" s="34" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-    </row>
-    <row r="53" s="55" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="73"/>
-      <c r="C53" s="64" t="s">
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+    </row>
+    <row r="53" s="34" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="69"/>
+      <c r="C53" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-    </row>
-    <row r="54" s="55" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="73"/>
-      <c r="C54" s="64" t="s">
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+    </row>
+    <row r="54" s="34" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="69"/>
+      <c r="C54" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-    </row>
-    <row r="55" s="55" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="64" t="s">
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+    </row>
+    <row r="55" s="34" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-    </row>
-    <row r="56" s="55" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="64"/>
-      <c r="C56" s="64" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+    </row>
+    <row r="56" s="34" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="60"/>
+      <c r="C56" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -3880,715 +3853,715 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="78" t="str">
+      <c r="D1" s="73" t="str">
         <f aca="true">"Form Completion Date: "&amp;TEXT(TODAY(),"dd-mmm-yyyy")</f>
         <v>Form Completion Date: 16-May-2019</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21" t="s">
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-    </row>
-    <row r="8" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="28" t="s">
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-    </row>
-    <row r="9" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="28" t="s">
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-    </row>
-    <row r="10" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28" t="s">
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+    </row>
+    <row r="10" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-    </row>
-    <row r="11" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28" t="s">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-    </row>
-    <row r="12" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="28" t="s">
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-    </row>
-    <row r="13" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="28" t="s">
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+    </row>
+    <row r="13" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-    </row>
-    <row r="14" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" s="76" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="92" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+    </row>
+    <row r="20" s="72" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-    </row>
-    <row r="21" s="76" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="92" t="s">
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+    </row>
+    <row r="21" s="72" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="41" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95" t="s">
+      <c r="C25" s="89"/>
+      <c r="D25" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96" t="s">
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97" t="s">
+      <c r="H25" s="91"/>
+      <c r="I25" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="98" t="s">
+      <c r="J25" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="K25" s="99"/>
+      <c r="K25" s="94"/>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
     </row>
     <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58" t="s">
+      <c r="C28" s="96"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
     </row>
     <row r="29" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58" t="s">
+      <c r="C29" s="87"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="57" t="s">
+      <c r="C31" s="87"/>
+      <c r="D31" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-    </row>
-    <row r="32" s="76" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="92" t="s">
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+    </row>
+    <row r="32" s="72" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="57" t="s">
+      <c r="C32" s="87"/>
+      <c r="D32" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" customFormat="false" ht="210" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
     </row>
     <row r="36" customFormat="false" ht="97.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="46" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="46" t="s">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="42" t="s">
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="41" t="s">
+      <c r="I38" s="40"/>
+      <c r="J38" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="K38" s="41"/>
+      <c r="K38" s="39"/>
     </row>
     <row r="39" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="67" t="s">
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="103" t="s">
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="103"/>
-      <c r="J39" s="41" t="s">
+      <c r="I39" s="98"/>
+      <c r="J39" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="K39" s="41"/>
+      <c r="K39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="42" t="s">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="105"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="100"/>
     </row>
     <row r="44" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
     </row>
     <row r="47" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -4786,7 +4759,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.85"/>
@@ -4795,635 +4768,635 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1" s="4" t="str">
+      <c r="I1" s="3" t="str">
         <f aca="true">"Form Completion Date: "&amp;TEXT(TODAY(),"dd-mmm-yyyy")</f>
         <v>Form Completion Date: 16-May-2019</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="85" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="85" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="85" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="85" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="85" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="85" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
     </row>
     <row r="21" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="98" t="s">
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="92" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="111"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="106"/>
     </row>
     <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
     </row>
     <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
     </row>
     <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116" t="s">
+      <c r="E34" s="110"/>
+      <c r="F34" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="115" t="s">
+      <c r="G34" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="H34" s="115"/>
-      <c r="I34" s="117" t="s">
+      <c r="H34" s="110"/>
+      <c r="I34" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="98" t="s">
+      <c r="J34" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="57"/>
+      <c r="K34" s="53"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
     </row>
     <row r="37" customFormat="false" ht="97.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="O37" s="105"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="O37" s="100"/>
     </row>
     <row r="38" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
     </row>
     <row r="41" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -5579,7 +5552,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="119" width="41.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="114" width="41.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.57"/>
@@ -5591,350 +5564,350 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="115" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="117" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="123" t="s">
+      <c r="G3" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="117" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="123" t="s">
+      <c r="G4" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="117" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="123" t="s">
+      <c r="D5" s="119"/>
+      <c r="E5" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="123" t="s">
+      <c r="G5" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="123" t="s">
+      <c r="H5" s="117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="123" t="s">
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="76"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="133"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="133"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="134"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
+      <c r="B13" s="127"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
+      <c r="B14" s="131"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
+      <c r="B15" s="131"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="133"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="133"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="133"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="138"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
